--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Japan J2 League_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Japan J2 League_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2348" uniqueCount="451">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2360" uniqueCount="453">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -1368,6 +1368,12 @@
   <si>
     <t>['34', '72']</t>
   </si>
+  <si>
+    <t>['31', '34', '84']</t>
+  </si>
+  <si>
+    <t>['31', '53', '68', '90+2']</t>
+  </si>
 </sst>
 </file>
 
@@ -1728,7 +1734,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP381"/>
+  <dimension ref="A1:BP383"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3922,7 +3928,7 @@
         <v>1.05</v>
       </c>
       <c r="AQ11">
-        <v>1.58</v>
+        <v>1.65</v>
       </c>
       <c r="AR11">
         <v>0</v>
@@ -4125,10 +4131,10 @@
         <v>1</v>
       </c>
       <c r="AP12">
-        <v>2.11</v>
+        <v>2</v>
       </c>
       <c r="AQ12">
-        <v>1.58</v>
+        <v>1.65</v>
       </c>
       <c r="AR12">
         <v>0</v>
@@ -5364,7 +5370,7 @@
         <v>1.21</v>
       </c>
       <c r="AQ18">
-        <v>1.47</v>
+        <v>1.55</v>
       </c>
       <c r="AR18">
         <v>0</v>
@@ -7627,7 +7633,7 @@
         <v>3</v>
       </c>
       <c r="AP29">
-        <v>2.11</v>
+        <v>2</v>
       </c>
       <c r="AQ29">
         <v>1.79</v>
@@ -8248,7 +8254,7 @@
         <v>1.32</v>
       </c>
       <c r="AQ32">
-        <v>1.47</v>
+        <v>1.55</v>
       </c>
       <c r="AR32">
         <v>1.34</v>
@@ -9069,7 +9075,7 @@
         <v>3</v>
       </c>
       <c r="AP36">
-        <v>1.74</v>
+        <v>1.65</v>
       </c>
       <c r="AQ36">
         <v>1.37</v>
@@ -9278,7 +9284,7 @@
         <v>1.58</v>
       </c>
       <c r="AQ37">
-        <v>1.58</v>
+        <v>1.65</v>
       </c>
       <c r="AR37">
         <v>0</v>
@@ -11129,7 +11135,7 @@
         <v>0</v>
       </c>
       <c r="AP46">
-        <v>1.74</v>
+        <v>1.65</v>
       </c>
       <c r="AQ46">
         <v>1.11</v>
@@ -12571,7 +12577,7 @@
         <v>3</v>
       </c>
       <c r="AP53">
-        <v>2.11</v>
+        <v>2</v>
       </c>
       <c r="AQ53">
         <v>1.37</v>
@@ -14222,7 +14228,7 @@
         <v>0.42</v>
       </c>
       <c r="AQ61">
-        <v>1.47</v>
+        <v>1.55</v>
       </c>
       <c r="AR61">
         <v>1.14</v>
@@ -14837,7 +14843,7 @@
         <v>2</v>
       </c>
       <c r="AP64">
-        <v>1.74</v>
+        <v>1.65</v>
       </c>
       <c r="AQ64">
         <v>1.79</v>
@@ -15252,7 +15258,7 @@
         <v>2.16</v>
       </c>
       <c r="AQ66">
-        <v>1.58</v>
+        <v>1.65</v>
       </c>
       <c r="AR66">
         <v>1.56</v>
@@ -15664,7 +15670,7 @@
         <v>1.05</v>
       </c>
       <c r="AQ68">
-        <v>1.47</v>
+        <v>1.55</v>
       </c>
       <c r="AR68">
         <v>1.32</v>
@@ -18133,7 +18139,7 @@
         <v>1.75</v>
       </c>
       <c r="AP80">
-        <v>2.11</v>
+        <v>2</v>
       </c>
       <c r="AQ80">
         <v>1.74</v>
@@ -19166,7 +19172,7 @@
         <v>1.32</v>
       </c>
       <c r="AQ85">
-        <v>1.58</v>
+        <v>1.65</v>
       </c>
       <c r="AR85">
         <v>1.3</v>
@@ -19987,7 +19993,7 @@
         <v>0.5</v>
       </c>
       <c r="AP89">
-        <v>1.74</v>
+        <v>1.65</v>
       </c>
       <c r="AQ89">
         <v>0.32</v>
@@ -20402,7 +20408,7 @@
         <v>1.21</v>
       </c>
       <c r="AQ91">
-        <v>1.47</v>
+        <v>1.55</v>
       </c>
       <c r="AR91">
         <v>1.35</v>
@@ -20605,7 +20611,7 @@
         <v>1.25</v>
       </c>
       <c r="AP92">
-        <v>2.11</v>
+        <v>2</v>
       </c>
       <c r="AQ92">
         <v>1.63</v>
@@ -21844,7 +21850,7 @@
         <v>1.58</v>
       </c>
       <c r="AQ98">
-        <v>1.47</v>
+        <v>1.55</v>
       </c>
       <c r="AR98">
         <v>1.35</v>
@@ -22665,7 +22671,7 @@
         <v>1.75</v>
       </c>
       <c r="AP102">
-        <v>1.74</v>
+        <v>1.65</v>
       </c>
       <c r="AQ102">
         <v>0.89</v>
@@ -23080,7 +23086,7 @@
         <v>2.53</v>
       </c>
       <c r="AQ104">
-        <v>1.58</v>
+        <v>1.65</v>
       </c>
       <c r="AR104">
         <v>1.83</v>
@@ -24519,7 +24525,7 @@
         <v>1.75</v>
       </c>
       <c r="AP111">
-        <v>2.11</v>
+        <v>2</v>
       </c>
       <c r="AQ111">
         <v>1.84</v>
@@ -27197,10 +27203,10 @@
         <v>1.67</v>
       </c>
       <c r="AP124">
-        <v>1.74</v>
+        <v>1.65</v>
       </c>
       <c r="AQ124">
-        <v>1.47</v>
+        <v>1.55</v>
       </c>
       <c r="AR124">
         <v>1.41</v>
@@ -28227,7 +28233,7 @@
         <v>1.5</v>
       </c>
       <c r="AP129">
-        <v>2.11</v>
+        <v>2</v>
       </c>
       <c r="AQ129">
         <v>1.26</v>
@@ -28848,7 +28854,7 @@
         <v>1.26</v>
       </c>
       <c r="AQ132">
-        <v>1.58</v>
+        <v>1.65</v>
       </c>
       <c r="AR132">
         <v>1.3</v>
@@ -31729,7 +31735,7 @@
         <v>0.83</v>
       </c>
       <c r="AP146">
-        <v>1.74</v>
+        <v>1.65</v>
       </c>
       <c r="AQ146">
         <v>1.11</v>
@@ -32347,10 +32353,10 @@
         <v>1.57</v>
       </c>
       <c r="AP149">
-        <v>2.11</v>
+        <v>2</v>
       </c>
       <c r="AQ149">
-        <v>1.47</v>
+        <v>1.55</v>
       </c>
       <c r="AR149">
         <v>1.67</v>
@@ -33789,7 +33795,7 @@
         <v>1.25</v>
       </c>
       <c r="AP156">
-        <v>1.74</v>
+        <v>1.65</v>
       </c>
       <c r="AQ156">
         <v>1.26</v>
@@ -34822,7 +34828,7 @@
         <v>1</v>
       </c>
       <c r="AQ161">
-        <v>1.58</v>
+        <v>1.65</v>
       </c>
       <c r="AR161">
         <v>1.13</v>
@@ -35437,7 +35443,7 @@
         <v>1.38</v>
       </c>
       <c r="AP164">
-        <v>2.11</v>
+        <v>2</v>
       </c>
       <c r="AQ164">
         <v>1.26</v>
@@ -36882,7 +36888,7 @@
         <v>1.79</v>
       </c>
       <c r="AQ171">
-        <v>1.47</v>
+        <v>1.55</v>
       </c>
       <c r="AR171">
         <v>1.6</v>
@@ -37500,7 +37506,7 @@
         <v>1.95</v>
       </c>
       <c r="AQ174">
-        <v>1.47</v>
+        <v>1.55</v>
       </c>
       <c r="AR174">
         <v>2.17</v>
@@ -37912,7 +37918,7 @@
         <v>1.21</v>
       </c>
       <c r="AQ176">
-        <v>1.58</v>
+        <v>1.65</v>
       </c>
       <c r="AR176">
         <v>1.56</v>
@@ -39354,7 +39360,7 @@
         <v>1</v>
       </c>
       <c r="AQ183">
-        <v>1.58</v>
+        <v>1.65</v>
       </c>
       <c r="AR183">
         <v>1.35</v>
@@ -40587,7 +40593,7 @@
         <v>1.75</v>
       </c>
       <c r="AP189">
-        <v>1.74</v>
+        <v>1.65</v>
       </c>
       <c r="AQ189">
         <v>1.21</v>
@@ -42238,7 +42244,7 @@
         <v>0.89</v>
       </c>
       <c r="AQ197">
-        <v>1.47</v>
+        <v>1.55</v>
       </c>
       <c r="AR197">
         <v>1.51</v>
@@ -43059,10 +43065,10 @@
         <v>1.9</v>
       </c>
       <c r="AP201">
-        <v>1.74</v>
+        <v>1.65</v>
       </c>
       <c r="AQ201">
-        <v>1.58</v>
+        <v>1.65</v>
       </c>
       <c r="AR201">
         <v>1.6</v>
@@ -44295,7 +44301,7 @@
         <v>1</v>
       </c>
       <c r="AP207">
-        <v>2.11</v>
+        <v>2</v>
       </c>
       <c r="AQ207">
         <v>1.11</v>
@@ -45119,7 +45125,7 @@
         <v>1.8</v>
       </c>
       <c r="AP211">
-        <v>2.11</v>
+        <v>2</v>
       </c>
       <c r="AQ211">
         <v>1.63</v>
@@ -46976,7 +46982,7 @@
         <v>2.53</v>
       </c>
       <c r="AQ220">
-        <v>1.47</v>
+        <v>1.55</v>
       </c>
       <c r="AR220">
         <v>1.78</v>
@@ -48418,7 +48424,7 @@
         <v>1.95</v>
       </c>
       <c r="AQ227">
-        <v>1.58</v>
+        <v>1.65</v>
       </c>
       <c r="AR227">
         <v>1.52</v>
@@ -48621,7 +48627,7 @@
         <v>1.4</v>
       </c>
       <c r="AP228">
-        <v>2.11</v>
+        <v>2</v>
       </c>
       <c r="AQ228">
         <v>1.53</v>
@@ -48827,7 +48833,7 @@
         <v>0.73</v>
       </c>
       <c r="AP229">
-        <v>1.74</v>
+        <v>1.65</v>
       </c>
       <c r="AQ229">
         <v>0.79</v>
@@ -50684,7 +50690,7 @@
         <v>1.26</v>
       </c>
       <c r="AQ238">
-        <v>1.58</v>
+        <v>1.65</v>
       </c>
       <c r="AR238">
         <v>1.5</v>
@@ -50890,7 +50896,7 @@
         <v>1</v>
       </c>
       <c r="AQ239">
-        <v>1.47</v>
+        <v>1.55</v>
       </c>
       <c r="AR239">
         <v>1.25</v>
@@ -51299,7 +51305,7 @@
         <v>1.64</v>
       </c>
       <c r="AP241">
-        <v>1.74</v>
+        <v>1.65</v>
       </c>
       <c r="AQ241">
         <v>1.63</v>
@@ -51917,7 +51923,7 @@
         <v>0.73</v>
       </c>
       <c r="AP244">
-        <v>2.11</v>
+        <v>2</v>
       </c>
       <c r="AQ244">
         <v>1.11</v>
@@ -53774,7 +53780,7 @@
         <v>1.21</v>
       </c>
       <c r="AQ253">
-        <v>1.58</v>
+        <v>1.65</v>
       </c>
       <c r="AR253">
         <v>1.39</v>
@@ -55213,7 +55219,7 @@
         <v>1.75</v>
       </c>
       <c r="AP260">
-        <v>1.74</v>
+        <v>1.65</v>
       </c>
       <c r="AQ260">
         <v>1.63</v>
@@ -56037,7 +56043,7 @@
         <v>1.92</v>
       </c>
       <c r="AP264">
-        <v>1.74</v>
+        <v>1.65</v>
       </c>
       <c r="AQ264">
         <v>1.84</v>
@@ -57070,7 +57076,7 @@
         <v>1.26</v>
       </c>
       <c r="AQ269">
-        <v>1.47</v>
+        <v>1.55</v>
       </c>
       <c r="AR269">
         <v>1.46</v>
@@ -58097,7 +58103,7 @@
         <v>1.46</v>
       </c>
       <c r="AP274">
-        <v>2.11</v>
+        <v>2</v>
       </c>
       <c r="AQ274">
         <v>1.26</v>
@@ -59542,7 +59548,7 @@
         <v>1.95</v>
       </c>
       <c r="AQ281">
-        <v>1.58</v>
+        <v>1.65</v>
       </c>
       <c r="AR281">
         <v>1.87</v>
@@ -60157,7 +60163,7 @@
         <v>0.79</v>
       </c>
       <c r="AP284">
-        <v>2.11</v>
+        <v>2</v>
       </c>
       <c r="AQ284">
         <v>0.79</v>
@@ -60366,7 +60372,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ285">
-        <v>1.47</v>
+        <v>1.55</v>
       </c>
       <c r="AR285">
         <v>1.5</v>
@@ -60775,7 +60781,7 @@
         <v>1.93</v>
       </c>
       <c r="AP287">
-        <v>1.74</v>
+        <v>1.65</v>
       </c>
       <c r="AQ287">
         <v>1.84</v>
@@ -63044,7 +63050,7 @@
         <v>0.42</v>
       </c>
       <c r="AQ298">
-        <v>1.58</v>
+        <v>1.65</v>
       </c>
       <c r="AR298">
         <v>1.06</v>
@@ -64483,7 +64489,7 @@
         <v>0.71</v>
       </c>
       <c r="AP305">
-        <v>1.74</v>
+        <v>1.65</v>
       </c>
       <c r="AQ305">
         <v>0.53</v>
@@ -66752,7 +66758,7 @@
         <v>1.21</v>
       </c>
       <c r="AQ316">
-        <v>1.47</v>
+        <v>1.55</v>
       </c>
       <c r="AR316">
         <v>1.41</v>
@@ -66955,7 +66961,7 @@
         <v>0.67</v>
       </c>
       <c r="AP317">
-        <v>2.11</v>
+        <v>2</v>
       </c>
       <c r="AQ317">
         <v>0.53</v>
@@ -68812,7 +68818,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ326">
-        <v>1.58</v>
+        <v>1.65</v>
       </c>
       <c r="AR326">
         <v>1.44</v>
@@ -70254,7 +70260,7 @@
         <v>1</v>
       </c>
       <c r="AQ333">
-        <v>1.47</v>
+        <v>1.55</v>
       </c>
       <c r="AR333">
         <v>1.42</v>
@@ -70869,7 +70875,7 @@
         <v>1.38</v>
       </c>
       <c r="AP336">
-        <v>1.74</v>
+        <v>1.65</v>
       </c>
       <c r="AQ336">
         <v>1.26</v>
@@ -71693,7 +71699,7 @@
         <v>1.25</v>
       </c>
       <c r="AP340">
-        <v>2.11</v>
+        <v>2</v>
       </c>
       <c r="AQ340">
         <v>1.21</v>
@@ -74577,7 +74583,7 @@
         <v>0.35</v>
       </c>
       <c r="AP354">
-        <v>2.11</v>
+        <v>2</v>
       </c>
       <c r="AQ354">
         <v>0.32</v>
@@ -74989,7 +74995,7 @@
         <v>1.71</v>
       </c>
       <c r="AP356">
-        <v>1.74</v>
+        <v>1.65</v>
       </c>
       <c r="AQ356">
         <v>1.53</v>
@@ -75610,7 +75616,7 @@
         <v>2.16</v>
       </c>
       <c r="AQ359">
-        <v>1.47</v>
+        <v>1.55</v>
       </c>
       <c r="AR359">
         <v>1.6</v>
@@ -76022,7 +76028,7 @@
         <v>1.21</v>
       </c>
       <c r="AQ361">
-        <v>1.58</v>
+        <v>1.65</v>
       </c>
       <c r="AR361">
         <v>1.17</v>
@@ -78082,7 +78088,7 @@
         <v>0.89</v>
       </c>
       <c r="AQ371">
-        <v>1.58</v>
+        <v>1.65</v>
       </c>
       <c r="AR371">
         <v>1.52</v>
@@ -79109,7 +79115,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AP376">
-        <v>2.11</v>
+        <v>2</v>
       </c>
       <c r="AQ376">
         <v>0.89</v>
@@ -79315,7 +79321,7 @@
         <v>1.33</v>
       </c>
       <c r="AP377">
-        <v>1.74</v>
+        <v>1.65</v>
       </c>
       <c r="AQ377">
         <v>1.26</v>
@@ -80142,7 +80148,7 @@
         <v>1.26</v>
       </c>
       <c r="AQ381">
-        <v>1.47</v>
+        <v>1.55</v>
       </c>
       <c r="AR381">
         <v>1.28</v>
@@ -80218,6 +80224,418 @@
       </c>
       <c r="BP381">
         <v>1.34</v>
+      </c>
+    </row>
+    <row r="382" spans="1:68">
+      <c r="A382" s="1">
+        <v>381</v>
+      </c>
+      <c r="B382">
+        <v>7744083</v>
+      </c>
+      <c r="C382" t="s">
+        <v>68</v>
+      </c>
+      <c r="D382" t="s">
+        <v>69</v>
+      </c>
+      <c r="E382" s="2">
+        <v>45626.875</v>
+      </c>
+      <c r="F382">
+        <v>0</v>
+      </c>
+      <c r="G382" t="s">
+        <v>88</v>
+      </c>
+      <c r="H382" t="s">
+        <v>75</v>
+      </c>
+      <c r="I382">
+        <v>0</v>
+      </c>
+      <c r="J382">
+        <v>2</v>
+      </c>
+      <c r="K382">
+        <v>2</v>
+      </c>
+      <c r="L382">
+        <v>0</v>
+      </c>
+      <c r="M382">
+        <v>3</v>
+      </c>
+      <c r="N382">
+        <v>3</v>
+      </c>
+      <c r="O382" t="s">
+        <v>92</v>
+      </c>
+      <c r="P382" t="s">
+        <v>451</v>
+      </c>
+      <c r="Q382">
+        <v>3</v>
+      </c>
+      <c r="R382">
+        <v>2.11</v>
+      </c>
+      <c r="S382">
+        <v>3.4</v>
+      </c>
+      <c r="T382">
+        <v>1.4</v>
+      </c>
+      <c r="U382">
+        <v>2.75</v>
+      </c>
+      <c r="V382">
+        <v>2.7</v>
+      </c>
+      <c r="W382">
+        <v>1.41</v>
+      </c>
+      <c r="X382">
+        <v>7.3</v>
+      </c>
+      <c r="Y382">
+        <v>1.06</v>
+      </c>
+      <c r="Z382">
+        <v>2.4</v>
+      </c>
+      <c r="AA382">
+        <v>3.56</v>
+      </c>
+      <c r="AB382">
+        <v>2.83</v>
+      </c>
+      <c r="AC382">
+        <v>1.03</v>
+      </c>
+      <c r="AD382">
+        <v>9</v>
+      </c>
+      <c r="AE382">
+        <v>1.29</v>
+      </c>
+      <c r="AF382">
+        <v>3.4</v>
+      </c>
+      <c r="AG382">
+        <v>1.8</v>
+      </c>
+      <c r="AH382">
+        <v>1.94</v>
+      </c>
+      <c r="AI382">
+        <v>1.72</v>
+      </c>
+      <c r="AJ382">
+        <v>2.05</v>
+      </c>
+      <c r="AK382">
+        <v>1.34</v>
+      </c>
+      <c r="AL382">
+        <v>1.28</v>
+      </c>
+      <c r="AM382">
+        <v>1.44</v>
+      </c>
+      <c r="AN382">
+        <v>1.74</v>
+      </c>
+      <c r="AO382">
+        <v>1.71</v>
+      </c>
+      <c r="AP382">
+        <v>1.69</v>
+      </c>
+      <c r="AQ382">
+        <v>1.74</v>
+      </c>
+      <c r="AR382">
+        <v>1.45</v>
+      </c>
+      <c r="AS382">
+        <v>1.43</v>
+      </c>
+      <c r="AT382">
+        <v>2.88</v>
+      </c>
+      <c r="AU382">
+        <v>6</v>
+      </c>
+      <c r="AV382">
+        <v>8</v>
+      </c>
+      <c r="AW382">
+        <v>6</v>
+      </c>
+      <c r="AX382">
+        <v>10</v>
+      </c>
+      <c r="AY382">
+        <v>12</v>
+      </c>
+      <c r="AZ382">
+        <v>18</v>
+      </c>
+      <c r="BA382">
+        <v>5</v>
+      </c>
+      <c r="BB382">
+        <v>7</v>
+      </c>
+      <c r="BC382">
+        <v>12</v>
+      </c>
+      <c r="BD382">
+        <v>2.34</v>
+      </c>
+      <c r="BE382">
+        <v>6.75</v>
+      </c>
+      <c r="BF382">
+        <v>1.93</v>
+      </c>
+      <c r="BG382">
+        <v>0</v>
+      </c>
+      <c r="BH382">
+        <v>0</v>
+      </c>
+      <c r="BI382">
+        <v>1.28</v>
+      </c>
+      <c r="BJ382">
+        <v>2.97</v>
+      </c>
+      <c r="BK382">
+        <v>1.53</v>
+      </c>
+      <c r="BL382">
+        <v>2.21</v>
+      </c>
+      <c r="BM382">
+        <v>1.93</v>
+      </c>
+      <c r="BN382">
+        <v>1.78</v>
+      </c>
+      <c r="BO382">
+        <v>2.43</v>
+      </c>
+      <c r="BP382">
+        <v>1.44</v>
+      </c>
+    </row>
+    <row r="383" spans="1:68">
+      <c r="A383" s="1">
+        <v>382</v>
+      </c>
+      <c r="B383">
+        <v>7744082</v>
+      </c>
+      <c r="C383" t="s">
+        <v>68</v>
+      </c>
+      <c r="D383" t="s">
+        <v>69</v>
+      </c>
+      <c r="E383" s="2">
+        <v>45627.04513888889</v>
+      </c>
+      <c r="F383">
+        <v>0</v>
+      </c>
+      <c r="G383" t="s">
+        <v>80</v>
+      </c>
+      <c r="H383" t="s">
+        <v>87</v>
+      </c>
+      <c r="I383">
+        <v>0</v>
+      </c>
+      <c r="J383">
+        <v>1</v>
+      </c>
+      <c r="K383">
+        <v>1</v>
+      </c>
+      <c r="L383">
+        <v>1</v>
+      </c>
+      <c r="M383">
+        <v>4</v>
+      </c>
+      <c r="N383">
+        <v>5</v>
+      </c>
+      <c r="O383" t="s">
+        <v>111</v>
+      </c>
+      <c r="P383" t="s">
+        <v>452</v>
+      </c>
+      <c r="Q383">
+        <v>2.7</v>
+      </c>
+      <c r="R383">
+        <v>2.28</v>
+      </c>
+      <c r="S383">
+        <v>3.45</v>
+      </c>
+      <c r="T383">
+        <v>1.3</v>
+      </c>
+      <c r="U383">
+        <v>3.2</v>
+      </c>
+      <c r="V383">
+        <v>2.4</v>
+      </c>
+      <c r="W383">
+        <v>1.51</v>
+      </c>
+      <c r="X383">
+        <v>5.65</v>
+      </c>
+      <c r="Y383">
+        <v>1.1</v>
+      </c>
+      <c r="Z383">
+        <v>2.15</v>
+      </c>
+      <c r="AA383">
+        <v>3.4</v>
+      </c>
+      <c r="AB383">
+        <v>2.88</v>
+      </c>
+      <c r="AC383">
+        <v>1.01</v>
+      </c>
+      <c r="AD383">
+        <v>11</v>
+      </c>
+      <c r="AE383">
+        <v>1.2</v>
+      </c>
+      <c r="AF383">
+        <v>4.3</v>
+      </c>
+      <c r="AG383">
+        <v>1.64</v>
+      </c>
+      <c r="AH383">
+        <v>2.18</v>
+      </c>
+      <c r="AI383">
+        <v>1.56</v>
+      </c>
+      <c r="AJ383">
+        <v>2.34</v>
+      </c>
+      <c r="AK383">
+        <v>1.31</v>
+      </c>
+      <c r="AL383">
+        <v>1.24</v>
+      </c>
+      <c r="AM383">
+        <v>1.54</v>
+      </c>
+      <c r="AN383">
+        <v>1.97</v>
+      </c>
+      <c r="AO383">
+        <v>1.68</v>
+      </c>
+      <c r="AP383">
+        <v>1.92</v>
+      </c>
+      <c r="AQ383">
+        <v>1.72</v>
+      </c>
+      <c r="AR383">
+        <v>1.56</v>
+      </c>
+      <c r="AS383">
+        <v>1.31</v>
+      </c>
+      <c r="AT383">
+        <v>2.87</v>
+      </c>
+      <c r="AU383">
+        <v>5</v>
+      </c>
+      <c r="AV383">
+        <v>7</v>
+      </c>
+      <c r="AW383">
+        <v>3</v>
+      </c>
+      <c r="AX383">
+        <v>7</v>
+      </c>
+      <c r="AY383">
+        <v>8</v>
+      </c>
+      <c r="AZ383">
+        <v>14</v>
+      </c>
+      <c r="BA383">
+        <v>6</v>
+      </c>
+      <c r="BB383">
+        <v>2</v>
+      </c>
+      <c r="BC383">
+        <v>8</v>
+      </c>
+      <c r="BD383">
+        <v>2.13</v>
+      </c>
+      <c r="BE383">
+        <v>6.45</v>
+      </c>
+      <c r="BF383">
+        <v>2.13</v>
+      </c>
+      <c r="BG383">
+        <v>1.22</v>
+      </c>
+      <c r="BH383">
+        <v>3.35</v>
+      </c>
+      <c r="BI383">
+        <v>1.44</v>
+      </c>
+      <c r="BJ383">
+        <v>2.43</v>
+      </c>
+      <c r="BK383">
+        <v>1.95</v>
+      </c>
+      <c r="BL383">
+        <v>1.85</v>
+      </c>
+      <c r="BM383">
+        <v>2.28</v>
+      </c>
+      <c r="BN383">
+        <v>1.5</v>
+      </c>
+      <c r="BO383">
+        <v>3.02</v>
+      </c>
+      <c r="BP383">
+        <v>1.27</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Japan J2 League_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Japan J2 League_2024.xlsx
@@ -1369,10 +1369,10 @@
     <t>['34', '72']</t>
   </si>
   <si>
-    <t>['31', '34', '84']</t>
+    <t>['31', '53', '68', '90+2']</t>
   </si>
   <si>
-    <t>['31', '53', '68', '90+2']</t>
+    <t>['31', '34', '84']</t>
   </si>
 </sst>
 </file>
@@ -80231,7 +80231,7 @@
         <v>381</v>
       </c>
       <c r="B382">
-        <v>7744083</v>
+        <v>7744082</v>
       </c>
       <c r="C382" t="s">
         <v>68</v>
@@ -80240,196 +80240,196 @@
         <v>69</v>
       </c>
       <c r="E382" s="2">
-        <v>45626.875</v>
+        <v>45627.04513888889</v>
       </c>
       <c r="F382">
         <v>0</v>
       </c>
       <c r="G382" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="H382" t="s">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="I382">
         <v>0</v>
       </c>
       <c r="J382">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K382">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L382">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M382">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N382">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="O382" t="s">
-        <v>92</v>
+        <v>111</v>
       </c>
       <c r="P382" t="s">
         <v>451</v>
       </c>
       <c r="Q382">
+        <v>2.7</v>
+      </c>
+      <c r="R382">
+        <v>2.28</v>
+      </c>
+      <c r="S382">
+        <v>3.45</v>
+      </c>
+      <c r="T382">
+        <v>1.3</v>
+      </c>
+      <c r="U382">
+        <v>3.2</v>
+      </c>
+      <c r="V382">
+        <v>2.4</v>
+      </c>
+      <c r="W382">
+        <v>1.51</v>
+      </c>
+      <c r="X382">
+        <v>5.65</v>
+      </c>
+      <c r="Y382">
+        <v>1.1</v>
+      </c>
+      <c r="Z382">
+        <v>2.15</v>
+      </c>
+      <c r="AA382">
+        <v>3.4</v>
+      </c>
+      <c r="AB382">
+        <v>2.88</v>
+      </c>
+      <c r="AC382">
+        <v>1.01</v>
+      </c>
+      <c r="AD382">
+        <v>11</v>
+      </c>
+      <c r="AE382">
+        <v>1.2</v>
+      </c>
+      <c r="AF382">
+        <v>4.3</v>
+      </c>
+      <c r="AG382">
+        <v>1.64</v>
+      </c>
+      <c r="AH382">
+        <v>2.18</v>
+      </c>
+      <c r="AI382">
+        <v>1.56</v>
+      </c>
+      <c r="AJ382">
+        <v>2.34</v>
+      </c>
+      <c r="AK382">
+        <v>1.31</v>
+      </c>
+      <c r="AL382">
+        <v>1.24</v>
+      </c>
+      <c r="AM382">
+        <v>1.54</v>
+      </c>
+      <c r="AN382">
+        <v>1.97</v>
+      </c>
+      <c r="AO382">
+        <v>1.68</v>
+      </c>
+      <c r="AP382">
+        <v>1.92</v>
+      </c>
+      <c r="AQ382">
+        <v>1.72</v>
+      </c>
+      <c r="AR382">
+        <v>1.56</v>
+      </c>
+      <c r="AS382">
+        <v>1.31</v>
+      </c>
+      <c r="AT382">
+        <v>2.87</v>
+      </c>
+      <c r="AU382">
+        <v>5</v>
+      </c>
+      <c r="AV382">
+        <v>10</v>
+      </c>
+      <c r="AW382">
         <v>3</v>
       </c>
-      <c r="R382">
-        <v>2.11</v>
-      </c>
-      <c r="S382">
-        <v>3.4</v>
-      </c>
-      <c r="T382">
-        <v>1.4</v>
-      </c>
-      <c r="U382">
-        <v>2.75</v>
-      </c>
-      <c r="V382">
-        <v>2.7</v>
-      </c>
-      <c r="W382">
-        <v>1.41</v>
-      </c>
-      <c r="X382">
-        <v>7.3</v>
-      </c>
-      <c r="Y382">
-        <v>1.06</v>
-      </c>
-      <c r="Z382">
-        <v>2.4</v>
-      </c>
-      <c r="AA382">
-        <v>3.56</v>
-      </c>
-      <c r="AB382">
-        <v>2.83</v>
-      </c>
-      <c r="AC382">
-        <v>1.03</v>
-      </c>
-      <c r="AD382">
+      <c r="AX382">
+        <v>7</v>
+      </c>
+      <c r="AY382">
         <v>9</v>
       </c>
-      <c r="AE382">
-        <v>1.29</v>
-      </c>
-      <c r="AF382">
-        <v>3.4</v>
-      </c>
-      <c r="AG382">
-        <v>1.8</v>
-      </c>
-      <c r="AH382">
-        <v>1.94</v>
-      </c>
-      <c r="AI382">
-        <v>1.72</v>
-      </c>
-      <c r="AJ382">
-        <v>2.05</v>
-      </c>
-      <c r="AK382">
-        <v>1.34</v>
-      </c>
-      <c r="AL382">
-        <v>1.28</v>
-      </c>
-      <c r="AM382">
+      <c r="AZ382">
+        <v>21</v>
+      </c>
+      <c r="BA382">
+        <v>6</v>
+      </c>
+      <c r="BB382">
+        <v>2</v>
+      </c>
+      <c r="BC382">
+        <v>8</v>
+      </c>
+      <c r="BD382">
+        <v>2.13</v>
+      </c>
+      <c r="BE382">
+        <v>6.45</v>
+      </c>
+      <c r="BF382">
+        <v>2.13</v>
+      </c>
+      <c r="BG382">
+        <v>1.22</v>
+      </c>
+      <c r="BH382">
+        <v>3.35</v>
+      </c>
+      <c r="BI382">
         <v>1.44</v>
       </c>
-      <c r="AN382">
-        <v>1.74</v>
-      </c>
-      <c r="AO382">
-        <v>1.71</v>
-      </c>
-      <c r="AP382">
-        <v>1.69</v>
-      </c>
-      <c r="AQ382">
-        <v>1.74</v>
-      </c>
-      <c r="AR382">
-        <v>1.45</v>
-      </c>
-      <c r="AS382">
-        <v>1.43</v>
-      </c>
-      <c r="AT382">
-        <v>2.88</v>
-      </c>
-      <c r="AU382">
-        <v>6</v>
-      </c>
-      <c r="AV382">
-        <v>8</v>
-      </c>
-      <c r="AW382">
-        <v>6</v>
-      </c>
-      <c r="AX382">
-        <v>10</v>
-      </c>
-      <c r="AY382">
-        <v>12</v>
-      </c>
-      <c r="AZ382">
-        <v>18</v>
-      </c>
-      <c r="BA382">
-        <v>5</v>
-      </c>
-      <c r="BB382">
-        <v>7</v>
-      </c>
-      <c r="BC382">
-        <v>12</v>
-      </c>
-      <c r="BD382">
-        <v>2.34</v>
-      </c>
-      <c r="BE382">
-        <v>6.75</v>
-      </c>
-      <c r="BF382">
-        <v>1.93</v>
-      </c>
-      <c r="BG382">
-        <v>0</v>
-      </c>
-      <c r="BH382">
-        <v>0</v>
-      </c>
-      <c r="BI382">
-        <v>1.28</v>
-      </c>
       <c r="BJ382">
-        <v>2.97</v>
+        <v>2.43</v>
       </c>
       <c r="BK382">
-        <v>1.53</v>
+        <v>1.95</v>
       </c>
       <c r="BL382">
-        <v>2.21</v>
+        <v>1.85</v>
       </c>
       <c r="BM382">
-        <v>1.93</v>
+        <v>2.28</v>
       </c>
       <c r="BN382">
-        <v>1.78</v>
+        <v>1.5</v>
       </c>
       <c r="BO382">
-        <v>2.43</v>
+        <v>3.02</v>
       </c>
       <c r="BP382">
-        <v>1.44</v>
+        <v>1.27</v>
       </c>
     </row>
     <row r="383" spans="1:68">
@@ -80437,7 +80437,7 @@
         <v>382</v>
       </c>
       <c r="B383">
-        <v>7744082</v>
+        <v>7744083</v>
       </c>
       <c r="C383" t="s">
         <v>68</v>
@@ -80446,196 +80446,196 @@
         <v>69</v>
       </c>
       <c r="E383" s="2">
-        <v>45627.04513888889</v>
+        <v>45627.08333333334</v>
       </c>
       <c r="F383">
         <v>0</v>
       </c>
       <c r="G383" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="H383" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="I383">
         <v>0</v>
       </c>
       <c r="J383">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K383">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L383">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M383">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N383">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="O383" t="s">
-        <v>111</v>
+        <v>92</v>
       </c>
       <c r="P383" t="s">
         <v>452</v>
       </c>
       <c r="Q383">
+        <v>3</v>
+      </c>
+      <c r="R383">
+        <v>2.11</v>
+      </c>
+      <c r="S383">
+        <v>3.4</v>
+      </c>
+      <c r="T383">
+        <v>1.4</v>
+      </c>
+      <c r="U383">
+        <v>2.75</v>
+      </c>
+      <c r="V383">
         <v>2.7</v>
       </c>
-      <c r="R383">
-        <v>2.28</v>
-      </c>
-      <c r="S383">
-        <v>3.45</v>
-      </c>
-      <c r="T383">
-        <v>1.3</v>
-      </c>
-      <c r="U383">
-        <v>3.2</v>
-      </c>
-      <c r="V383">
+      <c r="W383">
+        <v>1.41</v>
+      </c>
+      <c r="X383">
+        <v>7.3</v>
+      </c>
+      <c r="Y383">
+        <v>1.06</v>
+      </c>
+      <c r="Z383">
         <v>2.4</v>
       </c>
-      <c r="W383">
-        <v>1.51</v>
-      </c>
-      <c r="X383">
-        <v>5.65</v>
-      </c>
-      <c r="Y383">
-        <v>1.1</v>
-      </c>
-      <c r="Z383">
-        <v>2.15</v>
-      </c>
       <c r="AA383">
+        <v>3.56</v>
+      </c>
+      <c r="AB383">
+        <v>2.83</v>
+      </c>
+      <c r="AC383">
+        <v>1.03</v>
+      </c>
+      <c r="AD383">
+        <v>9</v>
+      </c>
+      <c r="AE383">
+        <v>1.29</v>
+      </c>
+      <c r="AF383">
         <v>3.4</v>
       </c>
-      <c r="AB383">
+      <c r="AG383">
+        <v>1.8</v>
+      </c>
+      <c r="AH383">
+        <v>1.94</v>
+      </c>
+      <c r="AI383">
+        <v>1.72</v>
+      </c>
+      <c r="AJ383">
+        <v>2.05</v>
+      </c>
+      <c r="AK383">
+        <v>1.34</v>
+      </c>
+      <c r="AL383">
+        <v>1.28</v>
+      </c>
+      <c r="AM383">
+        <v>1.44</v>
+      </c>
+      <c r="AN383">
+        <v>1.74</v>
+      </c>
+      <c r="AO383">
+        <v>1.71</v>
+      </c>
+      <c r="AP383">
+        <v>1.69</v>
+      </c>
+      <c r="AQ383">
+        <v>1.74</v>
+      </c>
+      <c r="AR383">
+        <v>1.45</v>
+      </c>
+      <c r="AS383">
+        <v>1.43</v>
+      </c>
+      <c r="AT383">
         <v>2.88</v>
       </c>
-      <c r="AC383">
-        <v>1.01</v>
-      </c>
-      <c r="AD383">
-        <v>11</v>
-      </c>
-      <c r="AE383">
-        <v>1.2</v>
-      </c>
-      <c r="AF383">
-        <v>4.3</v>
-      </c>
-      <c r="AG383">
-        <v>1.64</v>
-      </c>
-      <c r="AH383">
-        <v>2.18</v>
-      </c>
-      <c r="AI383">
-        <v>1.56</v>
-      </c>
-      <c r="AJ383">
+      <c r="AU383">
+        <v>6</v>
+      </c>
+      <c r="AV383">
+        <v>9</v>
+      </c>
+      <c r="AW383">
+        <v>6</v>
+      </c>
+      <c r="AX383">
+        <v>10</v>
+      </c>
+      <c r="AY383">
+        <v>17</v>
+      </c>
+      <c r="AZ383">
+        <v>26</v>
+      </c>
+      <c r="BA383">
+        <v>5</v>
+      </c>
+      <c r="BB383">
+        <v>7</v>
+      </c>
+      <c r="BC383">
+        <v>12</v>
+      </c>
+      <c r="BD383">
         <v>2.34</v>
       </c>
-      <c r="AK383">
-        <v>1.31</v>
-      </c>
-      <c r="AL383">
-        <v>1.24</v>
-      </c>
-      <c r="AM383">
-        <v>1.54</v>
-      </c>
-      <c r="AN383">
-        <v>1.97</v>
-      </c>
-      <c r="AO383">
-        <v>1.68</v>
-      </c>
-      <c r="AP383">
-        <v>1.92</v>
-      </c>
-      <c r="AQ383">
-        <v>1.72</v>
-      </c>
-      <c r="AR383">
-        <v>1.56</v>
-      </c>
-      <c r="AS383">
-        <v>1.31</v>
-      </c>
-      <c r="AT383">
-        <v>2.87</v>
-      </c>
-      <c r="AU383">
-        <v>5</v>
-      </c>
-      <c r="AV383">
-        <v>7</v>
-      </c>
-      <c r="AW383">
-        <v>3</v>
-      </c>
-      <c r="AX383">
-        <v>7</v>
-      </c>
-      <c r="AY383">
-        <v>8</v>
-      </c>
-      <c r="AZ383">
-        <v>14</v>
-      </c>
-      <c r="BA383">
-        <v>6</v>
-      </c>
-      <c r="BB383">
-        <v>2</v>
-      </c>
-      <c r="BC383">
-        <v>8</v>
-      </c>
-      <c r="BD383">
-        <v>2.13</v>
-      </c>
       <c r="BE383">
-        <v>6.45</v>
+        <v>6.75</v>
       </c>
       <c r="BF383">
-        <v>2.13</v>
+        <v>1.93</v>
       </c>
       <c r="BG383">
-        <v>1.22</v>
+        <v>0</v>
       </c>
       <c r="BH383">
-        <v>3.35</v>
+        <v>0</v>
       </c>
       <c r="BI383">
+        <v>1.28</v>
+      </c>
+      <c r="BJ383">
+        <v>2.97</v>
+      </c>
+      <c r="BK383">
+        <v>1.53</v>
+      </c>
+      <c r="BL383">
+        <v>2.21</v>
+      </c>
+      <c r="BM383">
+        <v>1.93</v>
+      </c>
+      <c r="BN383">
+        <v>1.78</v>
+      </c>
+      <c r="BO383">
+        <v>2.43</v>
+      </c>
+      <c r="BP383">
         <v>1.44</v>
-      </c>
-      <c r="BJ383">
-        <v>2.43</v>
-      </c>
-      <c r="BK383">
-        <v>1.95</v>
-      </c>
-      <c r="BL383">
-        <v>1.85</v>
-      </c>
-      <c r="BM383">
-        <v>2.28</v>
-      </c>
-      <c r="BN383">
-        <v>1.5</v>
-      </c>
-      <c r="BO383">
-        <v>3.02</v>
-      </c>
-      <c r="BP383">
-        <v>1.27</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Japan J2 League_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Japan J2 League_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2360" uniqueCount="453">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2366" uniqueCount="454">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -949,6 +949,9 @@
     <t>['16', '50']</t>
   </si>
   <si>
+    <t>['20', '61']</t>
+  </si>
+  <si>
     <t>['52']</t>
   </si>
   <si>
@@ -1734,7 +1737,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP383"/>
+  <dimension ref="A1:BP384"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2199,7 +2202,7 @@
         <v>91</v>
       </c>
       <c r="P3" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="Q3">
         <v>2.07</v>
@@ -2817,7 +2820,7 @@
         <v>94</v>
       </c>
       <c r="P6" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="Q6">
         <v>2.65</v>
@@ -3101,7 +3104,7 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="AQ7">
         <v>0.79</v>
@@ -3229,7 +3232,7 @@
         <v>96</v>
       </c>
       <c r="P8" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="Q8">
         <v>5</v>
@@ -3641,7 +3644,7 @@
         <v>98</v>
       </c>
       <c r="P10" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="Q10">
         <v>3.3</v>
@@ -3928,7 +3931,7 @@
         <v>1.05</v>
       </c>
       <c r="AQ11">
-        <v>1.65</v>
+        <v>1.57</v>
       </c>
       <c r="AR11">
         <v>0</v>
@@ -4053,7 +4056,7 @@
         <v>100</v>
       </c>
       <c r="P12" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="Q12">
         <v>2.49</v>
@@ -4134,7 +4137,7 @@
         <v>2</v>
       </c>
       <c r="AQ12">
-        <v>1.65</v>
+        <v>1.57</v>
       </c>
       <c r="AR12">
         <v>0</v>
@@ -4259,7 +4262,7 @@
         <v>99</v>
       </c>
       <c r="P13" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="Q13">
         <v>3.7</v>
@@ -5907,7 +5910,7 @@
         <v>107</v>
       </c>
       <c r="P21" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="Q21">
         <v>3.75</v>
@@ -6113,7 +6116,7 @@
         <v>107</v>
       </c>
       <c r="P22" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="Q22">
         <v>3.6</v>
@@ -6319,7 +6322,7 @@
         <v>108</v>
       </c>
       <c r="P23" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="Q23">
         <v>2.39</v>
@@ -7427,7 +7430,7 @@
         <v>1</v>
       </c>
       <c r="AP28">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="AQ28">
         <v>1.26</v>
@@ -7761,7 +7764,7 @@
         <v>114</v>
       </c>
       <c r="P30" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="Q30">
         <v>3.1</v>
@@ -7967,7 +7970,7 @@
         <v>115</v>
       </c>
       <c r="P31" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="Q31">
         <v>4.75</v>
@@ -8791,7 +8794,7 @@
         <v>117</v>
       </c>
       <c r="P35" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="Q35">
         <v>3.37</v>
@@ -8997,7 +9000,7 @@
         <v>92</v>
       </c>
       <c r="P36" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="Q36">
         <v>3.1</v>
@@ -9284,7 +9287,7 @@
         <v>1.58</v>
       </c>
       <c r="AQ37">
-        <v>1.65</v>
+        <v>1.57</v>
       </c>
       <c r="AR37">
         <v>0</v>
@@ -9615,7 +9618,7 @@
         <v>119</v>
       </c>
       <c r="P39" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="Q39">
         <v>3.9</v>
@@ -9821,7 +9824,7 @@
         <v>92</v>
       </c>
       <c r="P40" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="Q40">
         <v>2.8</v>
@@ -10517,7 +10520,7 @@
         <v>0</v>
       </c>
       <c r="AP43">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="AQ43">
         <v>1.11</v>
@@ -11675,7 +11678,7 @@
         <v>124</v>
       </c>
       <c r="P49" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="Q49">
         <v>3</v>
@@ -11881,7 +11884,7 @@
         <v>125</v>
       </c>
       <c r="P50" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="Q50">
         <v>3.35</v>
@@ -12087,7 +12090,7 @@
         <v>126</v>
       </c>
       <c r="P51" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="Q51">
         <v>3.42</v>
@@ -12293,7 +12296,7 @@
         <v>92</v>
       </c>
       <c r="P52" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="Q52">
         <v>3.6</v>
@@ -12499,7 +12502,7 @@
         <v>127</v>
       </c>
       <c r="P53" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="Q53">
         <v>3</v>
@@ -13941,7 +13944,7 @@
         <v>131</v>
       </c>
       <c r="P60" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="Q60">
         <v>3.75</v>
@@ -14147,7 +14150,7 @@
         <v>132</v>
       </c>
       <c r="P61" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="Q61">
         <v>4.75</v>
@@ -14353,7 +14356,7 @@
         <v>92</v>
       </c>
       <c r="P62" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="Q62">
         <v>2.24</v>
@@ -15177,7 +15180,7 @@
         <v>135</v>
       </c>
       <c r="P66" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="Q66">
         <v>2.25</v>
@@ -15258,7 +15261,7 @@
         <v>2.16</v>
       </c>
       <c r="AQ66">
-        <v>1.65</v>
+        <v>1.57</v>
       </c>
       <c r="AR66">
         <v>1.56</v>
@@ -16207,7 +16210,7 @@
         <v>130</v>
       </c>
       <c r="P71" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="Q71">
         <v>4.6</v>
@@ -17031,7 +17034,7 @@
         <v>92</v>
       </c>
       <c r="P75" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="Q75">
         <v>3.6</v>
@@ -17649,7 +17652,7 @@
         <v>140</v>
       </c>
       <c r="P78" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="Q78">
         <v>2.74</v>
@@ -17727,7 +17730,7 @@
         <v>1.33</v>
       </c>
       <c r="AP78">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="AQ78">
         <v>1.84</v>
@@ -17855,7 +17858,7 @@
         <v>141</v>
       </c>
       <c r="P79" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="Q79">
         <v>3.22</v>
@@ -18473,7 +18476,7 @@
         <v>143</v>
       </c>
       <c r="P82" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="Q82">
         <v>3.4</v>
@@ -18679,7 +18682,7 @@
         <v>108</v>
       </c>
       <c r="P83" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="Q83">
         <v>3.25</v>
@@ -19172,7 +19175,7 @@
         <v>1.32</v>
       </c>
       <c r="AQ85">
-        <v>1.65</v>
+        <v>1.57</v>
       </c>
       <c r="AR85">
         <v>1.3</v>
@@ -20121,7 +20124,7 @@
         <v>145</v>
       </c>
       <c r="P90" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="Q90">
         <v>2.38</v>
@@ -20327,7 +20330,7 @@
         <v>146</v>
       </c>
       <c r="P91" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="Q91">
         <v>3.75</v>
@@ -20945,7 +20948,7 @@
         <v>149</v>
       </c>
       <c r="P94" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="Q94">
         <v>2.64</v>
@@ -21151,7 +21154,7 @@
         <v>150</v>
       </c>
       <c r="P95" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="Q95">
         <v>2.38</v>
@@ -21357,7 +21360,7 @@
         <v>151</v>
       </c>
       <c r="P96" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="Q96">
         <v>1.06</v>
@@ -21563,7 +21566,7 @@
         <v>152</v>
       </c>
       <c r="P97" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="Q97">
         <v>3.92</v>
@@ -22387,7 +22390,7 @@
         <v>155</v>
       </c>
       <c r="P101" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="Q101">
         <v>3.75</v>
@@ -22799,7 +22802,7 @@
         <v>157</v>
       </c>
       <c r="P103" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="Q103">
         <v>2.05</v>
@@ -23005,7 +23008,7 @@
         <v>158</v>
       </c>
       <c r="P104" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="Q104">
         <v>2.45</v>
@@ -23086,7 +23089,7 @@
         <v>2.53</v>
       </c>
       <c r="AQ104">
-        <v>1.65</v>
+        <v>1.57</v>
       </c>
       <c r="AR104">
         <v>1.83</v>
@@ -23495,7 +23498,7 @@
         <v>1.75</v>
       </c>
       <c r="AP106">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="AQ106">
         <v>1.53</v>
@@ -23829,7 +23832,7 @@
         <v>92</v>
       </c>
       <c r="P108" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="Q108">
         <v>3.3</v>
@@ -24035,7 +24038,7 @@
         <v>121</v>
       </c>
       <c r="P109" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="Q109">
         <v>2.82</v>
@@ -24241,7 +24244,7 @@
         <v>97</v>
       </c>
       <c r="P110" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="Q110">
         <v>2.45</v>
@@ -24653,7 +24656,7 @@
         <v>92</v>
       </c>
       <c r="P112" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="Q112">
         <v>3.72</v>
@@ -24859,7 +24862,7 @@
         <v>162</v>
       </c>
       <c r="P113" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="Q113">
         <v>2.5</v>
@@ -25065,7 +25068,7 @@
         <v>163</v>
       </c>
       <c r="P114" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="Q114">
         <v>5.72</v>
@@ -25477,7 +25480,7 @@
         <v>165</v>
       </c>
       <c r="P116" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="Q116">
         <v>3</v>
@@ -25761,7 +25764,7 @@
         <v>2</v>
       </c>
       <c r="AP117">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="AQ117">
         <v>1.79</v>
@@ -26301,7 +26304,7 @@
         <v>92</v>
       </c>
       <c r="P120" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="Q120">
         <v>4</v>
@@ -27125,7 +27128,7 @@
         <v>168</v>
       </c>
       <c r="P124" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="Q124">
         <v>3.35</v>
@@ -27537,7 +27540,7 @@
         <v>170</v>
       </c>
       <c r="P126" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="Q126">
         <v>2.62</v>
@@ -27743,7 +27746,7 @@
         <v>171</v>
       </c>
       <c r="P127" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="Q127">
         <v>1.9</v>
@@ -27949,7 +27952,7 @@
         <v>172</v>
       </c>
       <c r="P128" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="Q128">
         <v>2.65</v>
@@ -28155,7 +28158,7 @@
         <v>173</v>
       </c>
       <c r="P129" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="Q129">
         <v>2.64</v>
@@ -28361,7 +28364,7 @@
         <v>174</v>
       </c>
       <c r="P130" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="Q130">
         <v>2.65</v>
@@ -28854,7 +28857,7 @@
         <v>1.26</v>
       </c>
       <c r="AQ132">
-        <v>1.65</v>
+        <v>1.57</v>
       </c>
       <c r="AR132">
         <v>1.3</v>
@@ -29391,7 +29394,7 @@
         <v>177</v>
       </c>
       <c r="P135" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="Q135">
         <v>2.3</v>
@@ -29469,7 +29472,7 @@
         <v>1.33</v>
       </c>
       <c r="AP135">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="AQ135">
         <v>1.63</v>
@@ -29597,7 +29600,7 @@
         <v>178</v>
       </c>
       <c r="P136" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="Q136">
         <v>3.53</v>
@@ -30215,7 +30218,7 @@
         <v>92</v>
       </c>
       <c r="P139" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="Q139">
         <v>6.99</v>
@@ -31039,7 +31042,7 @@
         <v>181</v>
       </c>
       <c r="P143" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="Q143">
         <v>2.27</v>
@@ -31451,7 +31454,7 @@
         <v>182</v>
       </c>
       <c r="P145" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="Q145">
         <v>2.72</v>
@@ -31657,7 +31660,7 @@
         <v>92</v>
       </c>
       <c r="P146" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="Q146">
         <v>2.86</v>
@@ -32481,7 +32484,7 @@
         <v>185</v>
       </c>
       <c r="P150" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="Q150">
         <v>2.69</v>
@@ -32687,7 +32690,7 @@
         <v>186</v>
       </c>
       <c r="P151" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="Q151">
         <v>3.55</v>
@@ -33305,7 +33308,7 @@
         <v>132</v>
       </c>
       <c r="P154" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="Q154">
         <v>3.12</v>
@@ -33717,7 +33720,7 @@
         <v>92</v>
       </c>
       <c r="P156" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="Q156">
         <v>3.04</v>
@@ -34129,7 +34132,7 @@
         <v>92</v>
       </c>
       <c r="P158" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="Q158">
         <v>3.86</v>
@@ -34413,7 +34416,7 @@
         <v>2.13</v>
       </c>
       <c r="AP159">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="AQ159">
         <v>1.37</v>
@@ -34747,7 +34750,7 @@
         <v>191</v>
       </c>
       <c r="P161" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="Q161">
         <v>4.5</v>
@@ -34828,7 +34831,7 @@
         <v>1</v>
       </c>
       <c r="AQ161">
-        <v>1.65</v>
+        <v>1.57</v>
       </c>
       <c r="AR161">
         <v>1.13</v>
@@ -35159,7 +35162,7 @@
         <v>99</v>
       </c>
       <c r="P163" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="Q163">
         <v>3</v>
@@ -35571,7 +35574,7 @@
         <v>192</v>
       </c>
       <c r="P165" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="Q165">
         <v>3.75</v>
@@ -35777,7 +35780,7 @@
         <v>92</v>
       </c>
       <c r="P166" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="Q166">
         <v>3.1</v>
@@ -36395,7 +36398,7 @@
         <v>194</v>
       </c>
       <c r="P169" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="Q169">
         <v>2.4</v>
@@ -36807,7 +36810,7 @@
         <v>192</v>
       </c>
       <c r="P171" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="Q171">
         <v>3.25</v>
@@ -37219,7 +37222,7 @@
         <v>197</v>
       </c>
       <c r="P173" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="Q173">
         <v>3</v>
@@ -37837,7 +37840,7 @@
         <v>200</v>
       </c>
       <c r="P176" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="Q176">
         <v>2.82</v>
@@ -37918,7 +37921,7 @@
         <v>1.21</v>
       </c>
       <c r="AQ176">
-        <v>1.65</v>
+        <v>1.57</v>
       </c>
       <c r="AR176">
         <v>1.56</v>
@@ -38455,7 +38458,7 @@
         <v>202</v>
       </c>
       <c r="P179" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="Q179">
         <v>3.56</v>
@@ -38867,7 +38870,7 @@
         <v>106</v>
       </c>
       <c r="P181" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="Q181">
         <v>4.05</v>
@@ -39279,7 +39282,7 @@
         <v>204</v>
       </c>
       <c r="P183" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="Q183">
         <v>3</v>
@@ -39360,7 +39363,7 @@
         <v>1</v>
       </c>
       <c r="AQ183">
-        <v>1.65</v>
+        <v>1.57</v>
       </c>
       <c r="AR183">
         <v>1.35</v>
@@ -39691,7 +39694,7 @@
         <v>92</v>
       </c>
       <c r="P185" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="Q185">
         <v>4.5</v>
@@ -40309,7 +40312,7 @@
         <v>206</v>
       </c>
       <c r="P188" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="Q188">
         <v>3.75</v>
@@ -40799,7 +40802,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AP190">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="AQ190">
         <v>0.32</v>
@@ -40927,7 +40930,7 @@
         <v>207</v>
       </c>
       <c r="P191" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="Q191">
         <v>4.75</v>
@@ -41751,7 +41754,7 @@
         <v>211</v>
       </c>
       <c r="P195" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="Q195">
         <v>3.4</v>
@@ -42163,7 +42166,7 @@
         <v>92</v>
       </c>
       <c r="P197" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="Q197">
         <v>3.5</v>
@@ -42369,7 +42372,7 @@
         <v>92</v>
       </c>
       <c r="P198" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="Q198">
         <v>2.63</v>
@@ -43068,7 +43071,7 @@
         <v>1.65</v>
       </c>
       <c r="AQ201">
-        <v>1.65</v>
+        <v>1.57</v>
       </c>
       <c r="AR201">
         <v>1.6</v>
@@ -43399,7 +43402,7 @@
         <v>214</v>
       </c>
       <c r="P203" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="Q203">
         <v>2.2</v>
@@ -43889,7 +43892,7 @@
         <v>0.67</v>
       </c>
       <c r="AP205">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="AQ205">
         <v>0.53</v>
@@ -44017,7 +44020,7 @@
         <v>92</v>
       </c>
       <c r="P206" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="Q206">
         <v>3.3</v>
@@ -45253,7 +45256,7 @@
         <v>92</v>
       </c>
       <c r="P212" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="Q212">
         <v>4.04</v>
@@ -45459,7 +45462,7 @@
         <v>135</v>
       </c>
       <c r="P213" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="Q213">
         <v>3.6</v>
@@ -46077,7 +46080,7 @@
         <v>221</v>
       </c>
       <c r="P216" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="Q216">
         <v>3.74</v>
@@ -46283,7 +46286,7 @@
         <v>222</v>
       </c>
       <c r="P217" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="Q217">
         <v>2.35</v>
@@ -46489,7 +46492,7 @@
         <v>195</v>
       </c>
       <c r="P218" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="Q218">
         <v>3.6</v>
@@ -46695,7 +46698,7 @@
         <v>92</v>
       </c>
       <c r="P219" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="Q219">
         <v>3.1</v>
@@ -46901,7 +46904,7 @@
         <v>223</v>
       </c>
       <c r="P220" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="Q220">
         <v>2.5</v>
@@ -47725,7 +47728,7 @@
         <v>96</v>
       </c>
       <c r="P224" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="Q224">
         <v>2.9</v>
@@ -48833,10 +48836,10 @@
         <v>1.82</v>
       </c>
       <c r="AP229">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="AQ229">
-        <v>1.65</v>
+        <v>1.57</v>
       </c>
       <c r="AR229">
         <v>1.52</v>
@@ -49167,7 +49170,7 @@
         <v>92</v>
       </c>
       <c r="P231" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="Q231">
         <v>2.75</v>
@@ -49991,7 +49994,7 @@
         <v>231</v>
       </c>
       <c r="P235" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="Q235">
         <v>5.5</v>
@@ -50197,7 +50200,7 @@
         <v>232</v>
       </c>
       <c r="P236" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="Q236">
         <v>3.4</v>
@@ -50403,7 +50406,7 @@
         <v>92</v>
       </c>
       <c r="P237" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="Q237">
         <v>5</v>
@@ -50690,7 +50693,7 @@
         <v>1.26</v>
       </c>
       <c r="AQ238">
-        <v>1.65</v>
+        <v>1.57</v>
       </c>
       <c r="AR238">
         <v>1.5</v>
@@ -51021,7 +51024,7 @@
         <v>210</v>
       </c>
       <c r="P240" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="Q240">
         <v>3.1</v>
@@ -51227,7 +51230,7 @@
         <v>92</v>
       </c>
       <c r="P241" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="Q241">
         <v>2.3</v>
@@ -51433,7 +51436,7 @@
         <v>235</v>
       </c>
       <c r="P242" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="Q242">
         <v>2.45</v>
@@ -51639,7 +51642,7 @@
         <v>92</v>
       </c>
       <c r="P243" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="Q243">
         <v>2.6</v>
@@ -52335,7 +52338,7 @@
         <v>1.17</v>
       </c>
       <c r="AP246">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="AQ246">
         <v>1.74</v>
@@ -53081,7 +53084,7 @@
         <v>239</v>
       </c>
       <c r="P250" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="Q250">
         <v>2.9</v>
@@ -53780,7 +53783,7 @@
         <v>1.21</v>
       </c>
       <c r="AQ253">
-        <v>1.65</v>
+        <v>1.57</v>
       </c>
       <c r="AR253">
         <v>1.39</v>
@@ -54601,7 +54604,7 @@
         <v>1.08</v>
       </c>
       <c r="AP257">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="AQ257">
         <v>1.26</v>
@@ -54729,7 +54732,7 @@
         <v>244</v>
       </c>
       <c r="P258" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="Q258">
         <v>2.45</v>
@@ -55759,7 +55762,7 @@
         <v>92</v>
       </c>
       <c r="P263" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="Q263">
         <v>2.79</v>
@@ -56171,7 +56174,7 @@
         <v>92</v>
       </c>
       <c r="P265" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="Q265">
         <v>2.38</v>
@@ -56789,7 +56792,7 @@
         <v>249</v>
       </c>
       <c r="P268" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="Q268">
         <v>3.26</v>
@@ -57201,7 +57204,7 @@
         <v>251</v>
       </c>
       <c r="P270" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="Q270">
         <v>7.59</v>
@@ -57407,7 +57410,7 @@
         <v>252</v>
       </c>
       <c r="P271" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="Q271">
         <v>3.2</v>
@@ -57819,7 +57822,7 @@
         <v>92</v>
       </c>
       <c r="P273" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="Q273">
         <v>4.5</v>
@@ -58025,7 +58028,7 @@
         <v>254</v>
       </c>
       <c r="P274" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="Q274">
         <v>2.4</v>
@@ -58231,7 +58234,7 @@
         <v>92</v>
       </c>
       <c r="P275" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="Q275">
         <v>3.64</v>
@@ -58515,7 +58518,7 @@
         <v>1.38</v>
       </c>
       <c r="AP276">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="AQ276">
         <v>1.21</v>
@@ -58849,7 +58852,7 @@
         <v>255</v>
       </c>
       <c r="P278" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="Q278">
         <v>2.88</v>
@@ -59261,7 +59264,7 @@
         <v>229</v>
       </c>
       <c r="P280" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="Q280">
         <v>4</v>
@@ -59467,7 +59470,7 @@
         <v>257</v>
       </c>
       <c r="P281" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="Q281">
         <v>2.75</v>
@@ -59548,7 +59551,7 @@
         <v>1.95</v>
       </c>
       <c r="AQ281">
-        <v>1.65</v>
+        <v>1.57</v>
       </c>
       <c r="AR281">
         <v>1.87</v>
@@ -60085,7 +60088,7 @@
         <v>92</v>
       </c>
       <c r="P284" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="Q284">
         <v>3.44</v>
@@ -60703,7 +60706,7 @@
         <v>191</v>
       </c>
       <c r="P287" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="Q287">
         <v>4.37</v>
@@ -61115,7 +61118,7 @@
         <v>206</v>
       </c>
       <c r="P289" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="Q289">
         <v>2.5</v>
@@ -61321,7 +61324,7 @@
         <v>92</v>
       </c>
       <c r="P290" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="Q290">
         <v>4.33</v>
@@ -61527,7 +61530,7 @@
         <v>261</v>
       </c>
       <c r="P291" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="Q291">
         <v>2.1</v>
@@ -61733,7 +61736,7 @@
         <v>262</v>
       </c>
       <c r="P292" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="Q292">
         <v>3.6</v>
@@ -61939,7 +61942,7 @@
         <v>92</v>
       </c>
       <c r="P293" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="Q293">
         <v>3.6</v>
@@ -62145,7 +62148,7 @@
         <v>263</v>
       </c>
       <c r="P294" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="Q294">
         <v>3.1</v>
@@ -62351,7 +62354,7 @@
         <v>195</v>
       </c>
       <c r="P295" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="Q295">
         <v>6.65</v>
@@ -62844,7 +62847,7 @@
         <v>0.42</v>
       </c>
       <c r="AQ297">
-        <v>1.65</v>
+        <v>1.57</v>
       </c>
       <c r="AR297">
         <v>1.06</v>
@@ -63253,7 +63256,7 @@
         <v>1</v>
       </c>
       <c r="AP299">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="AQ299">
         <v>1.26</v>
@@ -63381,7 +63384,7 @@
         <v>265</v>
       </c>
       <c r="P300" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="Q300">
         <v>2.4</v>
@@ -64489,7 +64492,7 @@
         <v>1.07</v>
       </c>
       <c r="AP305">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="AQ305">
         <v>0.89</v>
@@ -64617,7 +64620,7 @@
         <v>92</v>
       </c>
       <c r="P306" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="Q306">
         <v>3.26</v>
@@ -64823,7 +64826,7 @@
         <v>92</v>
       </c>
       <c r="P307" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="Q307">
         <v>3.74</v>
@@ -65235,7 +65238,7 @@
         <v>270</v>
       </c>
       <c r="P309" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="Q309">
         <v>3.49</v>
@@ -65441,7 +65444,7 @@
         <v>271</v>
       </c>
       <c r="P310" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="Q310">
         <v>4.6</v>
@@ -65647,7 +65650,7 @@
         <v>272</v>
       </c>
       <c r="P311" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="Q311">
         <v>3.11</v>
@@ -66059,7 +66062,7 @@
         <v>273</v>
       </c>
       <c r="P313" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="Q313">
         <v>4.25</v>
@@ -66265,7 +66268,7 @@
         <v>274</v>
       </c>
       <c r="P314" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="Q314">
         <v>3.1</v>
@@ -67089,7 +67092,7 @@
         <v>277</v>
       </c>
       <c r="P318" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="Q318">
         <v>3.6</v>
@@ -67501,7 +67504,7 @@
         <v>278</v>
       </c>
       <c r="P320" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="Q320">
         <v>2.95</v>
@@ -67707,7 +67710,7 @@
         <v>279</v>
       </c>
       <c r="P321" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="Q321">
         <v>3</v>
@@ -67913,7 +67916,7 @@
         <v>251</v>
       </c>
       <c r="P322" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="Q322">
         <v>3.25</v>
@@ -68818,7 +68821,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ326">
-        <v>1.65</v>
+        <v>1.57</v>
       </c>
       <c r="AR326">
         <v>1.44</v>
@@ -69021,7 +69024,7 @@
         <v>1.81</v>
       </c>
       <c r="AP327">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="AQ327">
         <v>1.84</v>
@@ -69561,7 +69564,7 @@
         <v>140</v>
       </c>
       <c r="P330" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="Q330">
         <v>5.08</v>
@@ -69767,7 +69770,7 @@
         <v>284</v>
       </c>
       <c r="P331" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="Q331">
         <v>4.5</v>
@@ -70179,7 +70182,7 @@
         <v>286</v>
       </c>
       <c r="P333" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="Q333">
         <v>3.75</v>
@@ -70385,7 +70388,7 @@
         <v>133</v>
       </c>
       <c r="P334" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="Q334">
         <v>3.4</v>
@@ -70591,7 +70594,7 @@
         <v>90</v>
       </c>
       <c r="P335" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="Q335">
         <v>2.88</v>
@@ -71003,7 +71006,7 @@
         <v>288</v>
       </c>
       <c r="P337" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="Q337">
         <v>5</v>
@@ -71621,7 +71624,7 @@
         <v>290</v>
       </c>
       <c r="P340" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="Q340">
         <v>2.5</v>
@@ -71827,7 +71830,7 @@
         <v>92</v>
       </c>
       <c r="P341" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="Q341">
         <v>3.2</v>
@@ -72239,7 +72242,7 @@
         <v>292</v>
       </c>
       <c r="P343" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="Q343">
         <v>2.4</v>
@@ -72651,7 +72654,7 @@
         <v>194</v>
       </c>
       <c r="P345" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="Q345">
         <v>3.4</v>
@@ -72857,7 +72860,7 @@
         <v>125</v>
       </c>
       <c r="P346" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="Q346">
         <v>2.3</v>
@@ -73759,7 +73762,7 @@
         <v>1.82</v>
       </c>
       <c r="AP350">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="AQ350">
         <v>1.63</v>
@@ -74093,7 +74096,7 @@
         <v>125</v>
       </c>
       <c r="P352" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="Q352">
         <v>2.68</v>
@@ -74299,7 +74302,7 @@
         <v>296</v>
       </c>
       <c r="P353" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="Q353">
         <v>4.35</v>
@@ -74711,7 +74714,7 @@
         <v>92</v>
       </c>
       <c r="P355" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="Q355">
         <v>3.4</v>
@@ -75329,7 +75332,7 @@
         <v>92</v>
       </c>
       <c r="P358" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="Q358">
         <v>5</v>
@@ -75535,7 +75538,7 @@
         <v>298</v>
       </c>
       <c r="P359" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="Q359">
         <v>2.5</v>
@@ -75947,7 +75950,7 @@
         <v>92</v>
       </c>
       <c r="P361" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="Q361">
         <v>4.5</v>
@@ -76028,7 +76031,7 @@
         <v>1.21</v>
       </c>
       <c r="AQ361">
-        <v>1.65</v>
+        <v>1.57</v>
       </c>
       <c r="AR361">
         <v>1.17</v>
@@ -76231,7 +76234,7 @@
         <v>1.24</v>
       </c>
       <c r="AP362">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="AQ362">
         <v>1.11</v>
@@ -76359,7 +76362,7 @@
         <v>301</v>
       </c>
       <c r="P363" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="Q363">
         <v>2.5</v>
@@ -76977,7 +76980,7 @@
         <v>197</v>
       </c>
       <c r="P366" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="Q366">
         <v>4</v>
@@ -77389,7 +77392,7 @@
         <v>90</v>
       </c>
       <c r="P368" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="Q368">
         <v>2.5</v>
@@ -77595,7 +77598,7 @@
         <v>302</v>
       </c>
       <c r="P369" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="Q369">
         <v>3</v>
@@ -78007,7 +78010,7 @@
         <v>303</v>
       </c>
       <c r="P371" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="Q371">
         <v>3.6</v>
@@ -78088,7 +78091,7 @@
         <v>0.89</v>
       </c>
       <c r="AQ371">
-        <v>1.65</v>
+        <v>1.57</v>
       </c>
       <c r="AR371">
         <v>1.52</v>
@@ -78419,7 +78422,7 @@
         <v>305</v>
       </c>
       <c r="P373" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="Q373">
         <v>1.87</v>
@@ -78831,7 +78834,7 @@
         <v>306</v>
       </c>
       <c r="P375" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="Q375">
         <v>2.65</v>
@@ -80273,7 +80276,7 @@
         <v>111</v>
       </c>
       <c r="P382" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="Q382">
         <v>2.7</v>
@@ -80354,7 +80357,7 @@
         <v>1.92</v>
       </c>
       <c r="AQ382">
-        <v>1.72</v>
+        <v>1.68</v>
       </c>
       <c r="AR382">
         <v>1.56</v>
@@ -80479,7 +80482,7 @@
         <v>92</v>
       </c>
       <c r="P383" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="Q383">
         <v>3</v>
@@ -80560,7 +80563,7 @@
         <v>1.69</v>
       </c>
       <c r="AQ383">
-        <v>1.74</v>
+        <v>1.78</v>
       </c>
       <c r="AR383">
         <v>1.45</v>
@@ -80636,6 +80639,212 @@
       </c>
       <c r="BP383">
         <v>1.44</v>
+      </c>
+    </row>
+    <row r="384" spans="1:68">
+      <c r="A384" s="1">
+        <v>383</v>
+      </c>
+      <c r="B384">
+        <v>7758022</v>
+      </c>
+      <c r="C384" t="s">
+        <v>68</v>
+      </c>
+      <c r="D384" t="s">
+        <v>69</v>
+      </c>
+      <c r="E384" s="2">
+        <v>45633.04513888889</v>
+      </c>
+      <c r="F384">
+        <v>0</v>
+      </c>
+      <c r="G384" t="s">
+        <v>75</v>
+      </c>
+      <c r="H384" t="s">
+        <v>87</v>
+      </c>
+      <c r="I384">
+        <v>1</v>
+      </c>
+      <c r="J384">
+        <v>0</v>
+      </c>
+      <c r="K384">
+        <v>1</v>
+      </c>
+      <c r="L384">
+        <v>2</v>
+      </c>
+      <c r="M384">
+        <v>0</v>
+      </c>
+      <c r="N384">
+        <v>2</v>
+      </c>
+      <c r="O384" t="s">
+        <v>311</v>
+      </c>
+      <c r="P384" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q384">
+        <v>2.8</v>
+      </c>
+      <c r="R384">
+        <v>2.05</v>
+      </c>
+      <c r="S384">
+        <v>3.65</v>
+      </c>
+      <c r="T384">
+        <v>1.4</v>
+      </c>
+      <c r="U384">
+        <v>2.7</v>
+      </c>
+      <c r="V384">
+        <v>2.8</v>
+      </c>
+      <c r="W384">
+        <v>1.38</v>
+      </c>
+      <c r="X384">
+        <v>7</v>
+      </c>
+      <c r="Y384">
+        <v>1.08</v>
+      </c>
+      <c r="Z384">
+        <v>2.1</v>
+      </c>
+      <c r="AA384">
+        <v>3.1</v>
+      </c>
+      <c r="AB384">
+        <v>3.25</v>
+      </c>
+      <c r="AC384">
+        <v>1.06</v>
+      </c>
+      <c r="AD384">
+        <v>8</v>
+      </c>
+      <c r="AE384">
+        <v>1.33</v>
+      </c>
+      <c r="AF384">
+        <v>3.1</v>
+      </c>
+      <c r="AG384">
+        <v>1.82</v>
+      </c>
+      <c r="AH384">
+        <v>1.92</v>
+      </c>
+      <c r="AI384">
+        <v>1.7</v>
+      </c>
+      <c r="AJ384">
+        <v>1.95</v>
+      </c>
+      <c r="AK384">
+        <v>1.33</v>
+      </c>
+      <c r="AL384">
+        <v>1.28</v>
+      </c>
+      <c r="AM384">
+        <v>1.62</v>
+      </c>
+      <c r="AN384">
+        <v>1.74</v>
+      </c>
+      <c r="AO384">
+        <v>1.72</v>
+      </c>
+      <c r="AP384">
+        <v>1.78</v>
+      </c>
+      <c r="AQ384">
+        <v>1.68</v>
+      </c>
+      <c r="AR384">
+        <v>1.46</v>
+      </c>
+      <c r="AS384">
+        <v>1.33</v>
+      </c>
+      <c r="AT384">
+        <v>2.79</v>
+      </c>
+      <c r="AU384">
+        <v>5</v>
+      </c>
+      <c r="AV384">
+        <v>10</v>
+      </c>
+      <c r="AW384">
+        <v>5</v>
+      </c>
+      <c r="AX384">
+        <v>8</v>
+      </c>
+      <c r="AY384">
+        <v>11</v>
+      </c>
+      <c r="AZ384">
+        <v>28</v>
+      </c>
+      <c r="BA384">
+        <v>3</v>
+      </c>
+      <c r="BB384">
+        <v>9</v>
+      </c>
+      <c r="BC384">
+        <v>12</v>
+      </c>
+      <c r="BD384">
+        <v>1.72</v>
+      </c>
+      <c r="BE384">
+        <v>8.6</v>
+      </c>
+      <c r="BF384">
+        <v>2.53</v>
+      </c>
+      <c r="BG384">
+        <v>1.22</v>
+      </c>
+      <c r="BH384">
+        <v>3.35</v>
+      </c>
+      <c r="BI384">
+        <v>1.44</v>
+      </c>
+      <c r="BJ384">
+        <v>2.42</v>
+      </c>
+      <c r="BK384">
+        <v>1.82</v>
+      </c>
+      <c r="BL384">
+        <v>1.98</v>
+      </c>
+      <c r="BM384">
+        <v>2.28</v>
+      </c>
+      <c r="BN384">
+        <v>1.5</v>
+      </c>
+      <c r="BO384">
+        <v>3.02</v>
+      </c>
+      <c r="BP384">
+        <v>1.27</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Japan J2 League_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Japan J2 League_2024.xlsx
@@ -80655,7 +80655,7 @@
         <v>69</v>
       </c>
       <c r="E384" s="2">
-        <v>45633.04513888889</v>
+        <v>45632.875</v>
       </c>
       <c r="F384">
         <v>0</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Japan J2 League_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Japan J2 League_2024.xlsx
@@ -80655,7 +80655,7 @@
         <v>69</v>
       </c>
       <c r="E384" s="2">
-        <v>45632.875</v>
+        <v>45633.04513888889</v>
       </c>
       <c r="F384">
         <v>0</v>
